--- a/Final Report/Final Report.xlsx
+++ b/Final Report/Final Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awpc2\Downloads\DA\New folder\5 Final Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awpc2\Downloads\DA\New folder\Final Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A7BF0-479F-4834-8183-DBEDA6031B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2DACC-53B7-449A-B49B-05E09DC154E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="780" firstSheet="7" activeTab="11" xr2:uid="{F84691F4-BBB5-4BC7-B739-AD4221675A5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="780" firstSheet="7" activeTab="11" xr2:uid="{F84691F4-BBB5-4BC7-B739-AD4221675A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Q3_Customer_Stats" sheetId="2" state="hidden" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
   <si>
     <t>total_customers</t>
   </si>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -521,6 +521,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2146,7 +2147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BADC97F-79C6-4E88-83CD-B7CC518B25D3}" type="CELLRANGE">
+                    <a:fld id="{7C31FFCF-A10F-4C30-8FC5-4DDB58B56E0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2179,7 +2180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5FBB766-AFB7-4BF3-A174-48DF73F91B1A}" type="CELLRANGE">
+                    <a:fld id="{E645BD94-B4E3-4CE4-A957-14B3E906C236}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2212,7 +2213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17A152E0-11F1-44ED-B02A-B4690967FB0D}" type="CELLRANGE">
+                    <a:fld id="{C457CA24-2C92-456E-A265-DB60B2C5027B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2245,7 +2246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A050E83-1292-498A-A00D-8F5B1614435E}" type="CELLRANGE">
+                    <a:fld id="{5F6B45C2-DB1E-456C-A2A2-CC268D6D7239}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2278,7 +2279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA7CF861-C014-47D3-BDC9-9C4BAEA1BCAA}" type="CELLRANGE">
+                    <a:fld id="{5A3ECD80-8345-463D-ABF3-3E5AC6AE34F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2311,7 +2312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA12265F-8559-4E7D-8A4E-AF95B21D7217}" type="CELLRANGE">
+                    <a:fld id="{608762B2-7A77-48C3-8A5C-0E818B5E155A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2344,7 +2345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEA85048-20D8-4B46-9D8E-23AB5369AD2D}" type="CELLRANGE">
+                    <a:fld id="{BF3B9E9E-ABBA-4FE2-A222-2DA82ED105FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2377,7 +2378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5174D653-DDDD-4D68-8B17-C1F16B0E5513}" type="CELLRANGE">
+                    <a:fld id="{FF9DFF03-20B5-4EC1-A1D7-8C00B9D13804}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2410,7 +2411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E815C7EC-F4A8-4552-8105-05A16C898FDF}" type="CELLRANGE">
+                    <a:fld id="{2945A968-EB78-439F-9ADF-123E37639500}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2443,7 +2444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA530F26-4017-4100-BC32-BDD50430AE7C}" type="CELLRANGE">
+                    <a:fld id="{DDD9B5B9-04D3-46DC-88BF-3EACADD4BFB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10170,7 +10171,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="23553208" cy="12308417"/>
+          <a:ext cx="23266213" cy="12292853"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="23336250" cy="12275344"/>
         </a:xfrm>
@@ -11422,13 +11423,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16383</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11443,10 +11444,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="447674" y="352425"/>
-          <a:ext cx="11420475" cy="3352800"/>
+          <a:off x="447674" y="361949"/>
+          <a:ext cx="14316076" cy="3495675"/>
           <a:chOff x="1543050" y="495300"/>
-          <a:chExt cx="7848600" cy="3409950"/>
+          <a:chExt cx="7848600" cy="3477762"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -11530,7 +11531,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1543050" y="1152525"/>
-            <a:ext cx="7848600" cy="2752725"/>
+            <a:ext cx="7848600" cy="2820537"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -11696,7 +11697,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Use a machine learning model to predict customer behavior (churn or stay): Link will be attached</a:t>
+              <a:t>Use a machine learning model to predict customer behavior (churn or stay): </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
@@ -11711,6 +11712,123 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E5DB7B-C496-63FD-2AE4-EE7589891C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="3057525"/>
+          <a:ext cx="3124200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Customer Behavior</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Prediction Model Link</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13272,7 +13390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41658A3C-C37C-400C-8FFE-37E6CA02C363}">
   <dimension ref="A1:XFC1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -13436,9 +13554,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D8BA4-86CF-4A94-AE26-1F78620F6A73}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -13446,39 +13564,43 @@
   <cols>
     <col min="1" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" hidden="1"/>
+    <col min="22" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25"/>
-    <row r="2" x14ac:dyDescent="0.25"/>
-    <row r="3" x14ac:dyDescent="0.25"/>
-    <row r="4" x14ac:dyDescent="0.25"/>
-    <row r="5" x14ac:dyDescent="0.25"/>
-    <row r="6" x14ac:dyDescent="0.25"/>
-    <row r="7" x14ac:dyDescent="0.25"/>
-    <row r="8" x14ac:dyDescent="0.25"/>
-    <row r="9" x14ac:dyDescent="0.25"/>
-    <row r="10" x14ac:dyDescent="0.25"/>
-    <row r="11" x14ac:dyDescent="0.25"/>
-    <row r="12" x14ac:dyDescent="0.25"/>
-    <row r="13" x14ac:dyDescent="0.25"/>
-    <row r="14" x14ac:dyDescent="0.25"/>
-    <row r="15" x14ac:dyDescent="0.25"/>
-    <row r="16" x14ac:dyDescent="0.25"/>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="19:19" x14ac:dyDescent="0.25"/>
     <row r="18" spans="19:19" x14ac:dyDescent="0.25"/>
     <row r="19" spans="19:19" x14ac:dyDescent="0.25"/>
     <row r="20" spans="19:19" x14ac:dyDescent="0.25"/>
     <row r="21" spans="19:19" x14ac:dyDescent="0.25"/>
     <row r="22" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S22" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="S22" s="13"/>
     </row>
+    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S22" location="Dashboard!A1" display="Dashboard Link" xr:uid="{EBB6BBDD-9A98-4460-B5D7-ACB74DD52333}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
